--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1218.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1218.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9262279723014772</v>
+        <v>1.192847013473511</v>
       </c>
       <c r="B1">
-        <v>3.38264035728635</v>
+        <v>2.240187168121338</v>
       </c>
       <c r="C1">
-        <v>3.26109067511225</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.083565535562552</v>
+        <v>2.280818462371826</v>
       </c>
       <c r="E1">
-        <v>1.261526796944269</v>
+        <v>1.214947700500488</v>
       </c>
     </row>
   </sheetData>
